--- a/media/report/data_export.xlsx
+++ b/media/report/data_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,12 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>interest_rate</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>payment_type</t>
         </is>
       </c>
     </row>
@@ -625,11 +630,8 @@
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -716,11 +718,8 @@
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -807,11 +806,8 @@
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -898,11 +894,8 @@
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -989,11 +982,8 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1080,11 +1070,8 @@
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1171,11 +1158,8 @@
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1262,11 +1246,8 @@
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1353,11 +1334,8 @@
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,11 +1422,8 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1535,11 +1510,8 @@
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1626,11 +1598,8 @@
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1717,11 +1686,8 @@
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1808,11 +1774,8 @@
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1899,11 +1862,8 @@
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1990,11 +1950,8 @@
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2081,11 +2038,8 @@
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2172,11 +2126,8 @@
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2263,11 +2214,8 @@
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2354,11 +2302,8 @@
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2445,11 +2390,8 @@
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2540,11 +2482,8 @@
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2635,11 +2574,8 @@
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2730,11 +2666,8 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2825,11 +2758,8 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2920,11 +2850,8 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3015,11 +2942,8 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3110,11 +3034,8 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3205,11 +3126,8 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3300,11 +3218,8 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3395,11 +3310,8 @@
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3490,11 +3402,8 @@
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3585,11 +3494,8 @@
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3680,11 +3586,8 @@
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3775,11 +3678,8 @@
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3870,11 +3770,8 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3965,11 +3862,8 @@
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4060,11 +3954,8 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4155,11 +4046,8 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4250,11 +4138,8 @@
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4289,11 +4174,8 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4384,11 +4266,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4479,11 +4358,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4574,11 +4450,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4669,11 +4542,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4764,11 +4634,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4859,11 +4726,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4954,11 +4818,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5049,11 +4910,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5144,11 +5002,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5239,11 +5094,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5278,11 +5130,8 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5373,11 +5222,8 @@
           <t>cuktgviyhvliy</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5468,11 +5314,8 @@
           <t>Sinmasdan kesn qadog'i buzilmasin iltimos</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5563,11 +5406,8 @@
           <t>Sinmasdan kesn qadog'i buzilmasin iltimos</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5606,11 +5446,8 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5649,11 +5486,8 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5692,11 +5526,8 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5735,11 +5566,8 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5778,11 +5606,8 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5821,11 +5646,8 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5864,11 +5686,8 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5907,11 +5726,8 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5950,11 +5766,8 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5994,6 +5807,79 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>486468347</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>морской</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>486468347</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>морской</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
